--- a/biology/Médecine/Paul_Lauterbur/Paul_Lauterbur.xlsx
+++ b/biology/Médecine/Paul_Lauterbur/Paul_Lauterbur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Christian Lauterbur, né le 6 mai 1929 à Sidney dans l'Ohio et mort le 27 mars 2007 à Urbana dans l'Illinois, est un chimiste américain qui a partagé le prix Nobel de physiologie ou médecine en 2003 avec Peter Mansfield pour son travail qui a rendu possible le développement de l'imagerie par résonance magnétique (IRM). En 1984, il reçoit le Prix Lasker.
 Né à Sidney, dans l'Ohio, Lauterbur est diplômé du lycée de Sidney, où une nouvelle aile de chimie, de physique, et de biologie a été consacrée en son honneur. Il a préparé une licence à l'université occidentale de Cleveland. Diplômé en 1962 de l'université de Pittsburgh, il attribue l'idée de l'IRM à un éclair de génie un jour dans un Eat'n Park Big Boy à Pittsburgh, le premier modèle d'IRM étant griffonné sur une serviette de table. La recherche qu'il a effectuée à l'université de l'État de New York à Stony Brook l'a mené au prix Nobel. Le Dr Lauterbur a été professeur à l'université de l'Illinois à Urbana-Champaign jusqu'à sa mort.
